--- a/run/output/iecorrect/iecorrect-template-add-other.xlsx
+++ b/run/output/iecorrect/iecorrect-template-add-other.xlsx
@@ -16,14 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>varname</t>
   </si>
   <si>
-    <t>idvalue</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -36,12 +36,12 @@
     <t>notes</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>varname</t>
   </si>
   <si>
-    <t>idvalue</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -54,7 +54,10 @@
     <t>notes</t>
   </si>
   <si>
-    <t>idvalue</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>n_obs</t>
   </si>
   <si>
     <t>initials</t>
@@ -198,7 +201,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -211,11 +214,15 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -228,22 +235,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
